--- a/StructureDefinition-oct-hrf.xlsx
+++ b/StructureDefinition-oct-hrf.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T21:03:26+00:00</t>
+    <t>2025-10-16T21:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -838,7 +838,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://eyematics.org/fhir/eyematics-kds/CodeSystem/oct-biomarker"/&gt;
+    &lt;system value="https://eyematics.org/fhir/eyematics-kds-extended/CodeSystem/oct-biomarker"/&gt;
     &lt;code value="HRF"/&gt;
     &lt;display value="Hyperreflective Foci"/&gt;
   &lt;/coding&gt;

--- a/StructureDefinition-oct-hrf.xlsx
+++ b/StructureDefinition-oct-hrf.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T21:17:38+00:00</t>
+    <t>2025-10-17T06:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-oct-hrf.xlsx
+++ b/StructureDefinition-oct-hrf.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T06:16:58+00:00</t>
+    <t>2025-10-17T07:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-oct-hrf.xlsx
+++ b/StructureDefinition-oct-hrf.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T07:01:09+00:00</t>
+    <t>2025-10-17T07:12:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-oct-hrf.xlsx
+++ b/StructureDefinition-oct-hrf.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T15:10:32+00:00</t>
+    <t>2025-10-18T07:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-oct-hrf.xlsx
+++ b/StructureDefinition-oct-hrf.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T07:06:25+00:00</t>
+    <t>2025-10-18T07:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
